--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_2.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2129714.124918358</v>
+        <v>-2134428.035872723</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14506183.73325517</v>
+        <v>14503823.8156935</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>12.725494085322</v>
@@ -674,7 +674,7 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>72.1935613947327</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>373.835520986034</v>
       </c>
     </row>
     <row r="3">
@@ -741,10 +741,10 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>105.2279122647528</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>125.4237525428725</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
         <v>177.5210747552478</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>113.1667354347865</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>86.64940239199018</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0.5267067571591793</v>
       </c>
       <c r="C5" t="n">
-        <v>115.1019029418122</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>12.725494085322</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>50.6435372072244</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1041,7 +1041,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>125.9247026980628</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="7">
@@ -1057,22 +1057,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>22.96189723698664</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>8.622722333612046</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>36.04486122486593</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>11.612600499655</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>113.1667354347866</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
@@ -1376,19 +1376,19 @@
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>186.0836874725235</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>117.9697693216183</v>
       </c>
       <c r="V11" t="n">
         <v>267.6074288087848</v>
@@ -1433,7 +1433,7 @@
         <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
         <v>321.4474895938729</v>
@@ -1528,25 +1528,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>74.68919464753417</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338901</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,16 +1579,16 @@
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
-        <v>86.90640443136124</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>95.58693720278207</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214455</v>
@@ -1667,13 +1667,13 @@
         <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>44.97366081453225</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1768,22 +1768,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E16" t="n">
-        <v>11.02492146885371</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681697</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456094</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>38.26885644320785</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
@@ -1825,7 +1825,7 @@
         <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
         <v>160.6612066001148</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
-        <v>295.2524720077823</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D26" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
-        <v>318.7342196110056</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G26" t="n">
         <v>315.0398534825604</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.9624712641434</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404353</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
-        <v>127.2743219418611</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U26" t="n">
-        <v>159.203927795431</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V26" t="n">
-        <v>244.6944667292004</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007185</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035426</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219398</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507309</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484036</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.5802388872325</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380454</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497647</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943239</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
-        <v>188.5931293662017</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
-        <v>126.8896660972067</v>
+        <v>126.8896660972066</v>
       </c>
     </row>
     <row r="29">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542121</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820279</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954281</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345501</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852512</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.2512081841669</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291034</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838898</v>
+        <v>24.17382596574986</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828911</v>
+        <v>52.06849973564998</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161067</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970374</v>
       </c>
       <c r="V32" t="n">
-        <v>232.349283903446</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813246</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162029</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431743</v>
+        <v>70.5760187316783</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459984</v>
+        <v>55.72314698196071</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643956</v>
+        <v>41.29686219380044</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931867</v>
+        <v>41.22330424667955</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908594</v>
+        <v>42.97275566644682</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147808</v>
+        <v>53.79159358883895</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805012</v>
+        <v>41.14384575541099</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922205</v>
+        <v>18.98356133658292</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367797</v>
+        <v>9.882059701038841</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920528</v>
+        <v>88.00800320656616</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133774</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404472</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273132</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.7171782754242</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947759</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.1010207988131</v>
       </c>
     </row>
     <row r="35">
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E44" t="n">
         <v>268.1977203190365</v>
@@ -3992,10 +3992,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978638</v>
@@ -4195,13 +4195,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X46" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1315.916866303798</v>
+        <v>594.992251062154</v>
       </c>
       <c r="C2" t="n">
-        <v>1315.916866303798</v>
+        <v>201.8167495650845</v>
       </c>
       <c r="D2" t="n">
-        <v>930.4757375204661</v>
+        <v>201.8167495650845</v>
       </c>
       <c r="E2" t="n">
-        <v>527.8922126370105</v>
+        <v>201.8167495650845</v>
       </c>
       <c r="F2" t="n">
-        <v>515.0381782073923</v>
+        <v>188.9627151354664</v>
       </c>
       <c r="G2" t="n">
-        <v>505.9158267357996</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022902</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>588.4870060424347</v>
       </c>
       <c r="M2" t="n">
-        <v>1578.706865059667</v>
+        <v>1102.089684652123</v>
       </c>
       <c r="N2" t="n">
-        <v>1641.749917465279</v>
+        <v>1102.089684652123</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465279</v>
+        <v>1542.129285544451</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596801</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T2" t="n">
-        <v>2101.86018045014</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="U2" t="n">
-        <v>2101.86018045014</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="V2" t="n">
-        <v>2101.86018045014</v>
+        <v>1733.05552852044</v>
       </c>
       <c r="W2" t="n">
-        <v>2101.86018045014</v>
+        <v>1362.056493488727</v>
       </c>
       <c r="X2" t="n">
-        <v>1712.407575383197</v>
+        <v>972.6038884217843</v>
       </c>
       <c r="Y2" t="n">
-        <v>1315.916866303798</v>
+        <v>594.992251062154</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>718.4298364179177</v>
+        <v>556.1927859813165</v>
       </c>
       <c r="C3" t="n">
-        <v>567.7756059780099</v>
+        <v>405.5385555414088</v>
       </c>
       <c r="D3" t="n">
-        <v>437.6866385994903</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="E3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.8829133828434</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>156.6106416144824</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>176.1237484101848</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="M3" t="n">
-        <v>714.3825334202777</v>
+        <v>921.5731989359455</v>
       </c>
       <c r="N3" t="n">
-        <v>1252.641318430371</v>
+        <v>921.5731989359455</v>
       </c>
       <c r="O3" t="n">
-        <v>1769.161601021352</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737749</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635814</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734591</v>
+        <v>1739.330805813763</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413233</v>
+        <v>1529.267662492405</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.3482927843</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917587</v>
+        <v>1076.610414996759</v>
       </c>
       <c r="X3" t="n">
-        <v>1049.540387783372</v>
+        <v>887.3033373467706</v>
       </c>
       <c r="Y3" t="n">
-        <v>870.2261708588791</v>
+        <v>707.9891204222779</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157.8054931672667</v>
+        <v>1660.92061575125</v>
       </c>
       <c r="C4" t="n">
-        <v>157.8054931672667</v>
+        <v>1660.92061575125</v>
       </c>
       <c r="D4" t="n">
-        <v>43.49565939475499</v>
+        <v>1660.92061575125</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475499</v>
+        <v>1660.92061575125</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475499</v>
+        <v>1660.92061575125</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475499</v>
+        <v>1492.666561850695</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475499</v>
+        <v>1337.188010812189</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475499</v>
+        <v>1204.093585449267</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475499</v>
+        <v>1173.715315275369</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>1255.550356385311</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>1419.677996259111</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>1605.969574597375</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>1789.159208628584</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>1951.863975670292</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>2071.74014144687</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>1951.261348449498</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>1748.445264632048</v>
       </c>
       <c r="T4" t="n">
-        <v>709.2236301045415</v>
+        <v>1660.92061575125</v>
       </c>
       <c r="U4" t="n">
-        <v>423.7848383464424</v>
+        <v>1660.92061575125</v>
       </c>
       <c r="V4" t="n">
-        <v>157.8054931672667</v>
+        <v>1660.92061575125</v>
       </c>
       <c r="W4" t="n">
-        <v>157.8054931672667</v>
+        <v>1660.92061575125</v>
       </c>
       <c r="X4" t="n">
-        <v>157.8054931672667</v>
+        <v>1660.92061575125</v>
       </c>
       <c r="Y4" t="n">
-        <v>157.8054931672667</v>
+        <v>1660.92061575125</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1432.181414729871</v>
+        <v>1304.516430278996</v>
       </c>
       <c r="C5" t="n">
-        <v>1315.916866303798</v>
+        <v>911.3409287819262</v>
       </c>
       <c r="D5" t="n">
-        <v>930.4757375204661</v>
+        <v>525.8997999985939</v>
       </c>
       <c r="E5" t="n">
-        <v>527.8922126370105</v>
+        <v>525.8997999985939</v>
       </c>
       <c r="F5" t="n">
-        <v>515.0381782073923</v>
+        <v>513.0457655689758</v>
       </c>
       <c r="G5" t="n">
-        <v>505.9158267357996</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022902</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>534.8235384748673</v>
       </c>
       <c r="M5" t="n">
-        <v>1578.706865059667</v>
+        <v>1048.426217084555</v>
       </c>
       <c r="N5" t="n">
-        <v>2106.518148697129</v>
+        <v>1562.028895694244</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.78296973775</v>
+        <v>2002.068496586572</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.78296973775</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.78296973775</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.78296973775</v>
+        <v>1647.155266602911</v>
       </c>
       <c r="U5" t="n">
-        <v>2174.78296973775</v>
+        <v>1647.155266602911</v>
       </c>
       <c r="V5" t="n">
-        <v>1832.676160441268</v>
+        <v>1305.048457306429</v>
       </c>
       <c r="W5" t="n">
-        <v>1832.676160441268</v>
+        <v>1305.048457306429</v>
       </c>
       <c r="X5" t="n">
-        <v>1832.676160441268</v>
+        <v>1305.048457306429</v>
       </c>
       <c r="Y5" t="n">
-        <v>1832.676160441268</v>
+        <v>1305.048457306429</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284341</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="M6" t="n">
-        <v>1498.174658585115</v>
+        <v>987.9600536479803</v>
       </c>
       <c r="N6" t="n">
-        <v>1658.262687146769</v>
+        <v>1327.194567652343</v>
       </c>
       <c r="O6" t="n">
-        <v>2174.78296973775</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="P6" t="n">
-        <v>2174.78296973775</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635814</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S6" t="n">
-        <v>2150.865926635814</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T6" t="n">
-        <v>1973.882114834722</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1763.818971513364</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1541.278969884431</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1311.161724017718</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>1121.85464636773</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>73.87392956865304</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="C7" t="n">
-        <v>73.87392956865304</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="D7" t="n">
-        <v>73.87392956865304</v>
+        <v>841.5932941600436</v>
       </c>
       <c r="E7" t="n">
-        <v>73.87392956865304</v>
+        <v>686.0344820192461</v>
       </c>
       <c r="F7" t="n">
-        <v>73.87392956865304</v>
+        <v>528.7085472322191</v>
       </c>
       <c r="G7" t="n">
-        <v>73.87392956865304</v>
+        <v>360.4544933316646</v>
       </c>
       <c r="H7" t="n">
-        <v>73.87392956865304</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865304</v>
+        <v>71.88151693023649</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>618.2256087514338</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>382.5065569196679</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>97.06776516156884</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>73.87392956865304</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W7" t="n">
-        <v>73.87392956865304</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="X7" t="n">
-        <v>73.87392956865304</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="Y7" t="n">
-        <v>73.87392956865304</v>
+        <v>942.9502692978909</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1741.6531569252</v>
+        <v>1199.996335360124</v>
       </c>
       <c r="C8" t="n">
-        <v>1348.47765542813</v>
+        <v>1199.996335360124</v>
       </c>
       <c r="D8" t="n">
-        <v>963.0365266447982</v>
+        <v>1199.996335360124</v>
       </c>
       <c r="E8" t="n">
-        <v>963.0365266447982</v>
+        <v>797.412810476668</v>
       </c>
       <c r="F8" t="n">
-        <v>546.1420881747759</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4814,13 +4814,13 @@
         <v>1590.266290800943</v>
       </c>
       <c r="N8" t="n">
-        <v>2118.077574438405</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4832,22 +4832,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2142.147902636597</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>2142.147902636597</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>2142.147902636597</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W8" t="n">
-        <v>2142.147902636597</v>
+        <v>1994.649470045468</v>
       </c>
       <c r="X8" t="n">
-        <v>2142.147902636597</v>
+        <v>1605.196864978524</v>
       </c>
       <c r="Y8" t="n">
-        <v>2142.147902636597</v>
+        <v>1208.706155899126</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L9" t="n">
-        <v>850.6182020620834</v>
+        <v>530.879055999857</v>
       </c>
       <c r="M9" t="n">
-        <v>850.6182020620834</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="N9" t="n">
-        <v>1436.116207068686</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>540.4399127684381</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>370.2347948344274</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>214.6016817369421</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>59.04286959614461</v>
       </c>
       <c r="F10" t="n">
         <v>47.31297010154361</v>
@@ -4990,22 +4990,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>427.6021490532311</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>161.6228038740554</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>725.6479314597394</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1876.087875523168</v>
+        <v>1294.528146303273</v>
       </c>
       <c r="C11" t="n">
-        <v>1554.708649172293</v>
+        <v>973.1489199523976</v>
       </c>
       <c r="D11" t="n">
-        <v>1241.063795535154</v>
+        <v>659.5040663152593</v>
       </c>
       <c r="E11" t="n">
-        <v>910.2765457978921</v>
+        <v>659.5040663152593</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185755</v>
+        <v>314.405902991431</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527725</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H11" t="n">
-        <v>128.659969465457</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5072,19 +5072,19 @@
         <v>2954.252057911387</v>
       </c>
       <c r="U11" t="n">
-        <v>2770.29560349218</v>
+        <v>2835.090674758237</v>
       </c>
       <c r="V11" t="n">
-        <v>2499.985069341892</v>
+        <v>2564.780140607949</v>
       </c>
       <c r="W11" t="n">
-        <v>2200.782309456373</v>
+        <v>2265.577380722431</v>
       </c>
       <c r="X11" t="n">
-        <v>2200.782309456373</v>
+        <v>1947.921050801682</v>
       </c>
       <c r="Y11" t="n">
-        <v>1876.087875523168</v>
+        <v>1623.226616868477</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
-        <v>1458.313011372373</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>655.0952099420616</v>
+        <v>317.7028133078935</v>
       </c>
       <c r="C13" t="n">
-        <v>556.6863671542446</v>
+        <v>317.7028133078935</v>
       </c>
       <c r="D13" t="n">
-        <v>472.8495292029532</v>
+        <v>317.7028133078935</v>
       </c>
       <c r="E13" t="n">
-        <v>389.0869922083497</v>
+        <v>242.2591823507882</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675165</v>
+        <v>242.2591823507882</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131559</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5206,10 +5206,10 @@
         <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118223</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S13" t="n">
-        <v>1365.71283314325</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T13" t="n">
-        <v>1201.790056457678</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U13" t="n">
-        <v>1114.005809557314</v>
+        <v>988.1475398457738</v>
       </c>
       <c r="V13" t="n">
-        <v>919.8227395243317</v>
+        <v>793.964469812792</v>
       </c>
       <c r="W13" t="n">
-        <v>919.8227395243317</v>
+        <v>582.4303428901636</v>
       </c>
       <c r="X13" t="n">
-        <v>919.8227395243317</v>
+        <v>582.4303428901636</v>
       </c>
       <c r="Y13" t="n">
-        <v>768.506953487169</v>
+        <v>431.1145568530009</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1788.408699622868</v>
+        <v>1388.790614793279</v>
       </c>
       <c r="C14" t="n">
-        <v>1467.029473271992</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="D14" t="n">
-        <v>1153.384619634854</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="E14" t="n">
-        <v>822.5973698975927</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F14" t="n">
-        <v>477.4992065737642</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="G14" t="n">
         <v>380.9467447527722</v>
@@ -5315,13 +5315,13 @@
         <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2106.065029543617</v>
+        <v>2359.839849212437</v>
       </c>
       <c r="X14" t="n">
-        <v>1788.408699622868</v>
+        <v>2042.183519291687</v>
       </c>
       <c r="Y14" t="n">
-        <v>1788.408699622868</v>
+        <v>1717.489085358482</v>
       </c>
     </row>
     <row r="15">
@@ -5358,13 +5358,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>802.5350401618138</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N15" t="n">
         <v>1458.313011372373</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>314.8481789384695</v>
+        <v>411.7059410452042</v>
       </c>
       <c r="C16" t="n">
-        <v>314.8481789384695</v>
+        <v>411.7059410452042</v>
       </c>
       <c r="D16" t="n">
-        <v>231.0113409871781</v>
+        <v>327.8691030939128</v>
       </c>
       <c r="E16" t="n">
-        <v>219.8750566752043</v>
+        <v>244.1065660993092</v>
       </c>
       <c r="F16" t="n">
-        <v>219.8750566752043</v>
+        <v>158.5769064584761</v>
       </c>
       <c r="G16" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922022</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.68534223645</v>
+        <v>1458.077231265813</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245443</v>
+        <v>1244.434714653908</v>
       </c>
       <c r="V16" t="n">
-        <v>741.8597555915627</v>
+        <v>1050.251644620926</v>
       </c>
       <c r="W16" t="n">
-        <v>741.8597555915627</v>
+        <v>838.7175176982973</v>
       </c>
       <c r="X16" t="n">
-        <v>579.5757085207397</v>
+        <v>676.4334706274743</v>
       </c>
       <c r="Y16" t="n">
-        <v>428.2599224835769</v>
+        <v>525.1176845903116</v>
       </c>
     </row>
     <row r="17">
@@ -5498,10 +5498,10 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
         <v>261.1858216803432</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5549,13 +5549,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>175.2341099238429</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>658.8001958221562</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>658.8001958221562</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5677,16 +5677,16 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N19" t="n">
         <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
         <v>1094.779966106229</v>
@@ -5738,10 +5738,10 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
         <v>68.77950792924223</v>
@@ -5789,7 +5789,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5835,19 +5835,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>494.9732559860694</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="M21" t="n">
-        <v>1122.744905612751</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N21" t="n">
-        <v>1778.52287682331</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O21" t="n">
-        <v>1778.52287682331</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5914,13 +5914,13 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960407</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>499.9530296343048</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>683.142663665514</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
         <v>845.8474307072221</v>
@@ -6011,10 +6011,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6066,16 +6066,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218609</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.125737939027</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142185</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678972</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859516</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429867</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
         <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755555</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>2986.344026377456</v>
+        <v>2986.344026377455</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3427.58288023855</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377514</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605753</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M27" t="n">
-        <v>1235.193651060917</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985354</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517129</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414159</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
         <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
         <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192022</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225752</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904125</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
-        <v>1124.291818351195</v>
+        <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648018</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286453</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988167</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026484</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6470,13 +6470,13 @@
         <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1895.47226483567</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N29" t="n">
-        <v>2516.334910202705</v>
+        <v>2546.304425485127</v>
       </c>
       <c r="O29" t="n">
-        <v>3049.425872824607</v>
+        <v>3079.395388107029</v>
       </c>
       <c r="P29" t="n">
         <v>3427.582880238551</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6549,7 +6549,7 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286452</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463672</v>
+        <v>904.3560533993082</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057095</v>
+        <v>601.3807258108111</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230771</v>
+        <v>302.1370811803395</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189323</v>
+        <v>91.97314162835504</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076166</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J32" t="n">
-        <v>262.3706492640397</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>726.6260980185716</v>
+        <v>571.187264538635</v>
       </c>
       <c r="L32" t="n">
-        <v>1325.219482464171</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1871.220382508751</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2399.031666146213</v>
+        <v>2138.319739939207</v>
       </c>
       <c r="O32" t="n">
-        <v>2839.071267038542</v>
+        <v>2690.011461406518</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897134</v>
+        <v>3038.19895353804</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038083</v>
+        <v>3334.696634253971</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038083</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908498</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397279</v>
+        <v>3215.580844380772</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696895</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394125</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291777</v>
+        <v>2588.479603131753</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004164</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076166</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604891</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227155</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.376340354128</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965135</v>
+        <v>365.6713676929717</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918672</v>
+        <v>309.3853606404862</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237464</v>
+        <v>267.6713584245261</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123134</v>
+        <v>226.0316571652539</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546508</v>
+        <v>182.624833259752</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834608</v>
+        <v>128.2898902407228</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431928</v>
+        <v>86.73045008374197</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076166</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703943</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="K34" t="n">
-        <v>226.8819394803362</v>
+        <v>149.3901767122869</v>
       </c>
       <c r="L34" t="n">
-        <v>496.2826720812061</v>
+        <v>313.5178165860867</v>
       </c>
       <c r="M34" t="n">
-        <v>787.8473431465402</v>
+        <v>575.8353109291606</v>
       </c>
       <c r="N34" t="n">
-        <v>971.0369771777493</v>
+        <v>870.6770655353528</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145875</v>
+        <v>1033.381832577061</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649524</v>
+        <v>1264.910118928622</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746645</v>
+        <v>1379.984435873656</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308586</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.2176684205</v>
+        <v>1281.105584451833</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518099</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689364</v>
+        <v>987.7859626250186</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395528</v>
+        <v>835.725728327368</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000948</v>
+        <v>666.3144371400708</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124425</v>
+        <v>546.1532258045792</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584503</v>
+        <v>436.9602755027478</v>
       </c>
     </row>
     <row r="35">
@@ -6920,13 +6920,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924224</v>
@@ -6971,7 +6971,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
         <v>2405.467337224691</v>
@@ -6980,7 +6980,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -7023,7 +7023,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7105,13 +7105,13 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>683.1426636655142</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q37" t="n">
         <v>1098.20216247628</v>
@@ -7251,16 +7251,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7330,16 +7330,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229933</v>
       </c>
       <c r="K40" t="n">
-        <v>273.0105384364859</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L40" t="n">
-        <v>437.1381783102858</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M40" t="n">
-        <v>623.4297566485498</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N40" t="n">
         <v>812.1990332879427</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H41" t="n">
         <v>68.77950792924223</v>
@@ -7436,13 +7436,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573994</v>
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>381.858273766342</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1009.629923393023</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
-        <v>1665.407894603582</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7573,16 +7573,16 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>623.4297566485496</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
         <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P43" t="n">
         <v>1094.779966106229</v>
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7679,16 +7679,16 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V44" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y44" t="n">
         <v>1882.877496443165</v>
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>802.5350401618138</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7813,13 +7813,13 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>499.953029634305</v>
+        <v>499.9530296343045</v>
       </c>
       <c r="N46" t="n">
-        <v>683.1426636655142</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P46" t="n">
         <v>1094.779966106229</v>
@@ -7834,22 +7834,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
   </sheetData>
@@ -7982,16 +7982,16 @@
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>197.0376953363567</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321646</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N2" t="n">
-        <v>212.798342252544</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8058,25 +8058,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>109.7705557414662</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837492</v>
+        <v>544.1202775014868</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886039</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431193</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321646</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920145</v>
       </c>
       <c r="O5" t="n">
-        <v>218.5182021115923</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>224.133610099864</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8298,22 +8298,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837493</v>
+        <v>611.1777065035423</v>
       </c>
       <c r="N6" t="n">
-        <v>247.0771922093723</v>
+        <v>428.0332381110985</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431193</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8462,16 +8462,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>393.9156246749224</v>
       </c>
       <c r="O8" t="n">
-        <v>399.6354845339704</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,25 +8532,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>422.8212561536983</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>385.1581020577846</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,28 +8766,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>577.006990218999</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>546.0917343741362</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9006,16 +9006,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>351.8313913012159</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9240,19 +9240,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N18" t="n">
-        <v>656.2283997181323</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9261,7 +9261,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9416,7 +9416,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q20" t="n">
         <v>331.2113854294513</v>
@@ -9483,22 +9483,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>90.06034685691823</v>
+        <v>400.7288157213065</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>458.3628540128008</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9653,10 +9653,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P23" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9714,19 +9714,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>624.8237719316268</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,10 +9960,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>340.274574506988</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>684.2495388215578</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9972,7 +9972,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10197,10 +10197,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10434,10 +10434,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118435</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10671,10 +10671,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10899,7 +10899,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10908,10 +10908,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11136,28 +11136,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O42" t="n">
-        <v>405.2384673331027</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,19 +11373,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -11394,7 +11394,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>155.5634942180665</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.770107113628</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>64.1471205533971</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>8.235716977123396</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901686</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>124.5996870144249</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>160.6612066001148</v>
@@ -23492,22 +23492,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>242.3658783593629</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>251.2370714721312</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993873</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>71.89999015580386</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>124.0146924755084</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1269737.617294538</v>
+        <v>1268534.522067018</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1269737.617294538</v>
+        <v>1268534.522067018</v>
       </c>
     </row>
     <row r="4">
@@ -26314,34 +26314,34 @@
         <v>36066.43561867136</v>
       </c>
       <c r="C2" t="n">
-        <v>36066.43561867136</v>
+        <v>36066.43561867138</v>
       </c>
       <c r="D2" t="n">
-        <v>36066.43561867137</v>
+        <v>36066.43561867134</v>
       </c>
       <c r="E2" t="n">
-        <v>31871.80468488011</v>
+        <v>31871.80468488012</v>
       </c>
       <c r="F2" t="n">
         <v>31871.80468488012</v>
       </c>
       <c r="G2" t="n">
-        <v>36066.43561867136</v>
+        <v>36066.43561867134</v>
       </c>
       <c r="H2" t="n">
-        <v>36066.43561867136</v>
+        <v>36066.43561867135</v>
       </c>
       <c r="I2" t="n">
-        <v>36066.43561867136</v>
+        <v>36066.43561867135</v>
       </c>
       <c r="J2" t="n">
-        <v>36066.43561867127</v>
+        <v>36066.4356186713</v>
       </c>
       <c r="K2" t="n">
         <v>36066.43561867128</v>
       </c>
       <c r="L2" t="n">
-        <v>36066.43561867134</v>
+        <v>36066.43561867138</v>
       </c>
       <c r="M2" t="n">
         <v>36066.43561867136</v>
@@ -26353,7 +26353,7 @@
         <v>36066.43561867136</v>
       </c>
       <c r="P2" t="n">
-        <v>36066.43561867136</v>
+        <v>36066.43561867135</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
-        <v>3.549095996820228e-11</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062183</v>
+        <v>22558.42953401354</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668195</v>
+        <v>47425.32553668194</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728546</v>
+        <v>62456.24177539675</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962298</v>
+        <v>43252.52447081125</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277118</v>
+        <v>27767.69404277125</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210684.9094840229</v>
+        <v>216193.9885327256</v>
       </c>
       <c r="C4" t="n">
-        <v>210684.9094840229</v>
+        <v>216193.9885327256</v>
       </c>
       <c r="D4" t="n">
         <v>200129.9340579131</v>
@@ -26430,7 +26430,7 @@
         <v>125701.6674923646</v>
       </c>
       <c r="G4" t="n">
-        <v>173460.5839839468</v>
+        <v>173460.5839839467</v>
       </c>
       <c r="H4" t="n">
         <v>173460.5839839468</v>
@@ -26445,7 +26445,7 @@
         <v>174211.0764483299</v>
       </c>
       <c r="L4" t="n">
-        <v>173955.5025478465</v>
+        <v>173822.1079387917</v>
       </c>
       <c r="M4" t="n">
         <v>173460.5839839468</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26491,13 +26491,13 @@
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173851</v>
+        <v>60823.19813315421</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551967</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-423507.7232972213</v>
+        <v>-419156.2774829265</v>
       </c>
       <c r="C6" t="n">
-        <v>-241302.7750053654</v>
+        <v>-245297.6204488714</v>
       </c>
       <c r="D6" t="n">
-        <v>-248471.0960270368</v>
+        <v>-256207.3852504285</v>
       </c>
       <c r="E6" t="n">
-        <v>-259138.4439813695</v>
+        <v>-259348.1755280591</v>
       </c>
       <c r="F6" t="n">
-        <v>-147015.882507325</v>
+        <v>-147225.6140540145</v>
       </c>
       <c r="G6" t="n">
         <v>-242989.243217477</v>
@@ -26543,16 +26543,16 @@
         <v>-195563.9176807951</v>
       </c>
       <c r="J6" t="n">
-        <v>-408605.8352780807</v>
+        <v>-402089.5501235074</v>
       </c>
       <c r="K6" t="n">
         <v>-201803.6860835781</v>
       </c>
       <c r="L6" t="n">
-        <v>-256986.2750181992</v>
+        <v>-261035.1122286713</v>
       </c>
       <c r="M6" t="n">
-        <v>-237764.747140418</v>
+        <v>-238816.4421516063</v>
       </c>
       <c r="N6" t="n">
         <v>-195563.9176807951</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,13 +26811,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443784</v>
+        <v>917.060736844378</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095207</v>
+        <v>844.4391950293135</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014442</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.28165692085243</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660682</v>
+        <v>78.07030221924593</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551355</v>
+        <v>17.58004954287442</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="C4" t="n">
-        <v>1.09855092108859e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485765</v>
+        <v>72.62154181506469</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773717</v>
+        <v>659.3622249971643</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407243</v>
+        <v>117.1268713042797</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.28165692085243</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="K4" t="n">
-        <v>1.09855092108859e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485765</v>
+        <v>72.62154181506469</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,13 +27379,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>149.0720350214448</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>18.69028100257088</v>
       </c>
     </row>
     <row r="3">
@@ -27461,10 +27461,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>23.56016543998166</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>61.99025433061593</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>40.91004653172385</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -27549,16 +27549,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>146.712458921458</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>395.9630914971237</v>
       </c>
       <c r="C5" t="n">
-        <v>274.1418435402865</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>124.5704364758562</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>51.59637205718508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27777,22 +27777,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>240.3576544903974</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>387.8670759206709</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>372.9862667320109</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -27913,13 +27913,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>144.1400749395018</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
@@ -28062,22 +28062,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>167.3303626133475</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="17">
@@ -28749,19 +28749,19 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P19" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28986,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>5.636002634528808</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>5.636002634528921</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N26" t="n">
-        <v>30.27223765901306</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431641</v>
+        <v>30.27223765901124</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431641</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431746</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29542,16 +29542,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.2722376590126</v>
       </c>
       <c r="O29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>30.27223765901277</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -29746,37 +29746,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
-        <v>48.65992738833324</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -29785,37 +29785,37 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>81.10808140893201</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000708</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000708</v>
+        <v>76.79385455031303</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="O34" t="n">
-        <v>18.71446861254307</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30177,16 +30177,16 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5.636002634528936</v>
+      </c>
+      <c r="Q37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
@@ -30402,7 +30402,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668816</v>
       </c>
       <c r="K40" t="n">
         <v>130.3599693155844</v>
@@ -30414,7 +30414,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30645,19 +30645,19 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P43" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -30885,13 +30885,13 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>5.636002634529063</v>
+        <v>5.636002634528552</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -34702,16 +34702,16 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>43.78952560586498</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="N2" t="n">
-        <v>63.67985091475995</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34778,25 +34778,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>19.71020888454792</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344373</v>
+        <v>451.733155452175</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344373</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O5" t="n">
-        <v>68.95436468749594</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>73.83216285893882</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,22 +35018,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="N6" t="n">
-        <v>161.7050793552056</v>
+        <v>342.6611252569318</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35182,16 +35182,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>244.7971333371383</v>
       </c>
       <c r="O8" t="n">
-        <v>250.071647109874</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>330.4341341043864</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>292.4705431688957</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>484.6198681696871</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>460.7196215199696</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>259.444269251904</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N18" t="n">
-        <v>570.8562868639657</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -35981,7 +35981,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,19 +36045,19 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
@@ -36136,7 +36136,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q20" t="n">
         <v>186.7126870110591</v>
@@ -36203,22 +36203,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>310.6684688643883</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>371.2794891934861</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>171.4214974565488</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36291,7 +36291,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716078</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36373,10 +36373,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P23" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>539.4516590774601</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
-        <v>456.599714906096</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>563.4149484039242</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>474.7566830047975</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853755</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698313</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,10 +36680,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>598.8774259673912</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36692,7 +36692,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215734</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6529321611274</v>
+        <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.4480384844689</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,16 +36838,16 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>563.4149484039237</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>381.9767751656005</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
         <v>186.7126870110591</v>
@@ -36917,10 +36917,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>247.8874524576761</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>194.7708091144222</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318505</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682818</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37081,16 +37081,16 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>557.2643651184962</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066585</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>299.4926067837691</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>43.49509683159873</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>247.8874524576769</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791177</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220908</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528628</v>
+        <v>264.967166003105</v>
       </c>
       <c r="N34" t="n">
-        <v>185.0400343749588</v>
+        <v>297.8199541476687</v>
       </c>
       <c r="O34" t="n">
-        <v>183.0627181496219</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.423493438029</v>
+        <v>233.8669559106681</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102233</v>
+        <v>116.2366837828624</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37473,16 +37473,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>190.6760370094878</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724871</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37628,10 +37628,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="K40" t="n">
         <v>213.0216270023944</v>
@@ -37710,7 +37710,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>190.6760370094878</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O42" t="n">
-        <v>312.5509084442139</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,19 +37941,19 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O43" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P43" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
@@ -38032,7 +38032,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
         <v>186.7126870110591</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38114,7 +38114,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>193.809314087321</v>
+        <v>193.8093140873205</v>
       </c>
       <c r="N46" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905432</v>
       </c>
       <c r="O46" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
